--- a/Test Data/Verify_Voltage_Calculation_Percentage_And_Color.xlsx
+++ b/Test Data/Verify_Voltage_Calculation_Percentage_And_Color.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FE9228-D348-45D5-BE0D-BF396DDDDDC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5291AA7A-A346-4F2F-8CDC-E70FEFB2CABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GreenColorPercentage" sheetId="1" r:id="rId1"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="8">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +596,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="8">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +690,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="8">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="8">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify_Voltage_Calculation_Percentage_And_Color.xlsx
+++ b/Test Data/Verify_Voltage_Calculation_Percentage_And_Color.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5291AA7A-A346-4F2F-8CDC-E70FEFB2CABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4D8A48-CDFC-4381-9897-F95032E4CC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GreenColorPercentage" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
   <si>
     <t>LPBS 3000</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Device Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -596,7 +599,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,6 +658,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -672,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="8">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +696,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
